--- a/backend/uploads/file_nilai/nilai_EE0102-19_Fisika Dasar I_A_Tahun_2016.xlsx
+++ b/backend/uploads/file_nilai/nilai_EE0102-19_Fisika Dasar I_A_Tahun_2016.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="22730"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="22827"/>
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\adip2\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ECC1B11D-9280-4AFC-A00A-F84E6E3F4399}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{77358D4A-4D95-4849-8A94-9BB6EBAC69E1}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11310" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -806,8 +806,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A2:H50"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="E16" sqref="E16"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A6" workbookViewId="0">
+      <selection activeCell="H22" sqref="H22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1176,19 +1176,19 @@
         <v>40</v>
       </c>
       <c r="D22">
-        <v>88</v>
+        <v>99</v>
       </c>
       <c r="E22">
-        <v>86</v>
+        <v>70</v>
       </c>
       <c r="F22">
-        <v>88</v>
+        <v>71</v>
       </c>
       <c r="G22">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="H22">
-        <v>65</v>
+        <v>98</v>
       </c>
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.25">

--- a/backend/uploads/file_nilai/nilai_EE0102-19_Fisika Dasar I_A_Tahun_2016.xlsx
+++ b/backend/uploads/file_nilai/nilai_EE0102-19_Fisika Dasar I_A_Tahun_2016.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\adip2\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{77358D4A-4D95-4849-8A94-9BB6EBAC69E1}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{84C07924-73C0-4FBC-9FBF-311257790440}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11310" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -105,6 +105,156 @@
     <t>CPMK4</t>
   </si>
   <si>
+    <t>I0717002</t>
+  </si>
+  <si>
+    <t>Agung Budi Utomo</t>
+  </si>
+  <si>
+    <t>I0717004</t>
+  </si>
+  <si>
+    <t>Alvin Ichwannur Ridho</t>
+  </si>
+  <si>
+    <t>I0717005</t>
+  </si>
+  <si>
+    <t>Arif Wibowo</t>
+  </si>
+  <si>
+    <t>I0717008</t>
+  </si>
+  <si>
+    <t>Aulia Vici Yunitasari</t>
+  </si>
+  <si>
+    <t>I0717009</t>
+  </si>
+  <si>
+    <t>Bakasrian Fericoari</t>
+  </si>
+  <si>
+    <t>I0717010</t>
+  </si>
+  <si>
+    <t>Banu Maheswara</t>
+  </si>
+  <si>
+    <t>I0717011</t>
+  </si>
+  <si>
+    <t>Bayhaqi Irfani</t>
+  </si>
+  <si>
+    <t>I0717012</t>
+  </si>
+  <si>
+    <t>Berlianne Shanaza Andriany</t>
+  </si>
+  <si>
+    <t>I0717013</t>
+  </si>
+  <si>
+    <t>Bima Damar Jati</t>
+  </si>
+  <si>
+    <t>I0717014</t>
+  </si>
+  <si>
+    <t>Bintar Yudo Sadewo</t>
+  </si>
+  <si>
+    <t>I0717015</t>
+  </si>
+  <si>
+    <t>Fahmi Ismail</t>
+  </si>
+  <si>
+    <t>I0717016</t>
+  </si>
+  <si>
+    <t>Faishal Hanifan Ma`Ruf</t>
+  </si>
+  <si>
+    <t>I0717017</t>
+  </si>
+  <si>
+    <t>Gilang Satria Ajie</t>
+  </si>
+  <si>
+    <t>I0717018</t>
+  </si>
+  <si>
+    <t>Hanifah Yulia</t>
+  </si>
+  <si>
+    <t>I0717021</t>
+  </si>
+  <si>
+    <t>Hisbullah Ahmad Fathoni</t>
+  </si>
+  <si>
+    <t>I0717022</t>
+  </si>
+  <si>
+    <t>Ivan Robi Septian</t>
+  </si>
+  <si>
+    <t>I0717023</t>
+  </si>
+  <si>
+    <t>Kevin Dwiyanto Saputra</t>
+  </si>
+  <si>
+    <t>I0717024</t>
+  </si>
+  <si>
+    <t>M. Iqbal Zidny</t>
+  </si>
+  <si>
+    <t>I0717025</t>
+  </si>
+  <si>
+    <t>M. Maulana Yusuf</t>
+  </si>
+  <si>
+    <t>I0717026</t>
+  </si>
+  <si>
+    <t>Mohammad Raihan H.</t>
+  </si>
+  <si>
+    <t>I0717027</t>
+  </si>
+  <si>
+    <t>Muhammad Al Hamid</t>
+  </si>
+  <si>
+    <t>I0717028</t>
+  </si>
+  <si>
+    <t>Muhammad Ikyu Arqie Ramadhan</t>
+  </si>
+  <si>
+    <t>I0717029</t>
+  </si>
+  <si>
+    <t>Muhammad Renaldy Darmawan</t>
+  </si>
+  <si>
+    <t>I0717030</t>
+  </si>
+  <si>
+    <t>Muhammad Rifai</t>
+  </si>
+  <si>
+    <t>I0717037</t>
+  </si>
+  <si>
+    <t>Rifqi Paradisa</t>
+  </si>
+  <si>
     <t>I0715021</t>
   </si>
   <si>
@@ -117,24 +267,6 @@
     <t>Aditya Pratama</t>
   </si>
   <si>
-    <t>I0717002</t>
-  </si>
-  <si>
-    <t>Agung Budi Utomo</t>
-  </si>
-  <si>
-    <t>I0717004</t>
-  </si>
-  <si>
-    <t>Alvin Ichwannur Ridho</t>
-  </si>
-  <si>
-    <t>I0717005</t>
-  </si>
-  <si>
-    <t>Arif Wibowo</t>
-  </si>
-  <si>
     <t>I0717006</t>
   </si>
   <si>
@@ -147,132 +279,6 @@
     <t>Attar Al Mufashal Rasyid</t>
   </si>
   <si>
-    <t>I0717008</t>
-  </si>
-  <si>
-    <t>Aulia Vici Yunitasari</t>
-  </si>
-  <si>
-    <t>I0717009</t>
-  </si>
-  <si>
-    <t>Bakasrian Fericoari</t>
-  </si>
-  <si>
-    <t>I0717010</t>
-  </si>
-  <si>
-    <t>Banu Maheswara</t>
-  </si>
-  <si>
-    <t>I0717011</t>
-  </si>
-  <si>
-    <t>Bayhaqi Irfani</t>
-  </si>
-  <si>
-    <t>I0717012</t>
-  </si>
-  <si>
-    <t>Berlianne Shanaza Andriany</t>
-  </si>
-  <si>
-    <t>I0717013</t>
-  </si>
-  <si>
-    <t>Bima Damar Jati</t>
-  </si>
-  <si>
-    <t>I0717014</t>
-  </si>
-  <si>
-    <t>Bintar Yudo Sadewo</t>
-  </si>
-  <si>
-    <t>I0717015</t>
-  </si>
-  <si>
-    <t>Fahmi Ismail</t>
-  </si>
-  <si>
-    <t>I0717016</t>
-  </si>
-  <si>
-    <t>Faishal Hanifan Ma`Ruf</t>
-  </si>
-  <si>
-    <t>I0717017</t>
-  </si>
-  <si>
-    <t>Gilang Satria Ajie</t>
-  </si>
-  <si>
-    <t>I0717018</t>
-  </si>
-  <si>
-    <t>Hanifah Yulia</t>
-  </si>
-  <si>
-    <t>I0717021</t>
-  </si>
-  <si>
-    <t>Hisbullah Ahmad Fathoni</t>
-  </si>
-  <si>
-    <t>I0717022</t>
-  </si>
-  <si>
-    <t>Ivan Robi Septian</t>
-  </si>
-  <si>
-    <t>I0717023</t>
-  </si>
-  <si>
-    <t>Kevin Dwiyanto Saputra</t>
-  </si>
-  <si>
-    <t>I0717024</t>
-  </si>
-  <si>
-    <t>M. Iqbal Zidny</t>
-  </si>
-  <si>
-    <t>I0717025</t>
-  </si>
-  <si>
-    <t>M. Maulana Yusuf</t>
-  </si>
-  <si>
-    <t>I0717026</t>
-  </si>
-  <si>
-    <t>Mohammad Raihan H.</t>
-  </si>
-  <si>
-    <t>I0717027</t>
-  </si>
-  <si>
-    <t>Muhammad Al Hamid</t>
-  </si>
-  <si>
-    <t>I0717028</t>
-  </si>
-  <si>
-    <t>Muhammad Ikyu Arqie Ramadhan</t>
-  </si>
-  <si>
-    <t>I0717029</t>
-  </si>
-  <si>
-    <t>Muhammad Renaldy Darmawan</t>
-  </si>
-  <si>
-    <t>I0717030</t>
-  </si>
-  <si>
-    <t>Muhammad Rifai</t>
-  </si>
-  <si>
     <t>I0717031</t>
   </si>
   <si>
@@ -295,12 +301,6 @@
   </si>
   <si>
     <t>Nanda Hafidz Rivanda</t>
-  </si>
-  <si>
-    <t>I0717037</t>
-  </si>
-  <si>
-    <t>Rifqi Paradisa</t>
   </si>
   <si>
     <t>I0717038</t>
@@ -806,8 +806,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A2:H50"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A6" workbookViewId="0">
-      <selection activeCell="H22" sqref="H22"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A31" workbookViewId="0">
+      <selection activeCell="J44" sqref="J44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -994,19 +994,13 @@
         <v>26</v>
       </c>
       <c r="D15">
-        <v>75</v>
+        <v>81</v>
       </c>
       <c r="E15">
-        <v>73</v>
-      </c>
-      <c r="F15">
-        <v>54</v>
+        <v>83</v>
       </c>
       <c r="G15">
-        <v>84</v>
-      </c>
-      <c r="H15">
-        <v>56</v>
+        <v>87</v>
       </c>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.25">
@@ -1020,19 +1014,19 @@
         <v>28</v>
       </c>
       <c r="D16">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="E16">
-        <v>70</v>
+        <v>88</v>
       </c>
       <c r="F16">
-        <v>54</v>
+        <v>82</v>
       </c>
       <c r="G16">
-        <v>57</v>
+        <v>79</v>
       </c>
       <c r="H16">
-        <v>65</v>
+        <v>99</v>
       </c>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.25">
@@ -1046,19 +1040,19 @@
         <v>30</v>
       </c>
       <c r="D17">
-        <v>58</v>
+        <v>78</v>
       </c>
       <c r="E17">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="F17">
-        <v>59</v>
+        <v>78</v>
       </c>
       <c r="G17">
-        <v>54</v>
+        <v>78</v>
       </c>
       <c r="H17">
-        <v>90</v>
+        <v>99</v>
       </c>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.25">
@@ -1072,19 +1066,16 @@
         <v>32</v>
       </c>
       <c r="D18">
-        <v>74</v>
+        <v>90</v>
       </c>
       <c r="E18">
-        <v>69</v>
+        <v>87</v>
       </c>
       <c r="F18">
-        <v>57</v>
+        <v>87</v>
       </c>
       <c r="G18">
-        <v>83</v>
-      </c>
-      <c r="H18">
-        <v>61</v>
+        <v>79</v>
       </c>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.25">
@@ -1098,19 +1089,19 @@
         <v>34</v>
       </c>
       <c r="D19">
-        <v>61</v>
+        <v>88</v>
       </c>
       <c r="E19">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="F19">
-        <v>90</v>
+        <v>82</v>
       </c>
       <c r="G19">
-        <v>54</v>
+        <v>75</v>
       </c>
       <c r="H19">
-        <v>59</v>
+        <v>99</v>
       </c>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.25">
@@ -1124,19 +1115,19 @@
         <v>36</v>
       </c>
       <c r="D20">
-        <v>90</v>
+        <v>81</v>
       </c>
       <c r="E20">
-        <v>61</v>
+        <v>86</v>
       </c>
       <c r="F20">
-        <v>87</v>
+        <v>81</v>
       </c>
       <c r="G20">
-        <v>55</v>
+        <v>83</v>
       </c>
       <c r="H20">
-        <v>89</v>
+        <v>99</v>
       </c>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.25">
@@ -1150,19 +1141,16 @@
         <v>38</v>
       </c>
       <c r="D21">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="E21">
-        <v>53</v>
-      </c>
-      <c r="F21">
-        <v>66</v>
+        <v>86</v>
       </c>
       <c r="G21">
-        <v>70</v>
+        <v>88</v>
       </c>
       <c r="H21">
-        <v>66</v>
+        <v>99</v>
       </c>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.25">
@@ -1176,19 +1164,16 @@
         <v>40</v>
       </c>
       <c r="D22">
-        <v>99</v>
+        <v>87</v>
       </c>
       <c r="E22">
-        <v>70</v>
+        <v>86</v>
       </c>
       <c r="F22">
-        <v>71</v>
+        <v>83</v>
       </c>
       <c r="G22">
-        <v>72</v>
-      </c>
-      <c r="H22">
-        <v>98</v>
+        <v>86</v>
       </c>
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.25">
@@ -1202,19 +1187,19 @@
         <v>42</v>
       </c>
       <c r="D23">
-        <v>56</v>
+        <v>87</v>
       </c>
       <c r="E23">
-        <v>66</v>
+        <v>75</v>
       </c>
       <c r="F23">
-        <v>70</v>
+        <v>89</v>
       </c>
       <c r="G23">
-        <v>71</v>
+        <v>80</v>
       </c>
       <c r="H23">
-        <v>77</v>
+        <v>99</v>
       </c>
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.25">
@@ -1228,19 +1213,19 @@
         <v>44</v>
       </c>
       <c r="D24">
-        <v>53</v>
+        <v>88</v>
       </c>
       <c r="E24">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="F24">
-        <v>64</v>
+        <v>78</v>
       </c>
       <c r="G24">
-        <v>88</v>
+        <v>75</v>
       </c>
       <c r="H24">
-        <v>73</v>
+        <v>99</v>
       </c>
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.25">
@@ -1254,19 +1239,19 @@
         <v>46</v>
       </c>
       <c r="D25">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="E25">
-        <v>67</v>
+        <v>87</v>
       </c>
       <c r="F25">
-        <v>63</v>
+        <v>78</v>
       </c>
       <c r="G25">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="H25">
-        <v>82</v>
+        <v>99</v>
       </c>
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.25">
@@ -1279,20 +1264,17 @@
       <c r="C26" t="s">
         <v>48</v>
       </c>
-      <c r="D26">
-        <v>62</v>
-      </c>
       <c r="E26">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="F26">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="G26">
-        <v>66</v>
+        <v>88</v>
       </c>
       <c r="H26">
-        <v>84</v>
+        <v>99</v>
       </c>
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.25">
@@ -1306,19 +1288,19 @@
         <v>50</v>
       </c>
       <c r="D27">
-        <v>88</v>
+        <v>81</v>
       </c>
       <c r="E27">
-        <v>69</v>
+        <v>85</v>
       </c>
       <c r="F27">
+        <v>81</v>
+      </c>
+      <c r="G27">
         <v>75</v>
       </c>
-      <c r="G27">
-        <v>55</v>
-      </c>
       <c r="H27">
-        <v>69</v>
+        <v>99</v>
       </c>
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.25">
@@ -1332,19 +1314,19 @@
         <v>52</v>
       </c>
       <c r="D28">
-        <v>84</v>
+        <v>78</v>
       </c>
       <c r="E28">
-        <v>61</v>
+        <v>77</v>
       </c>
       <c r="F28">
-        <v>56</v>
+        <v>89</v>
       </c>
       <c r="G28">
-        <v>57</v>
+        <v>85</v>
       </c>
       <c r="H28">
-        <v>90</v>
+        <v>99</v>
       </c>
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.25">
@@ -1358,19 +1340,19 @@
         <v>54</v>
       </c>
       <c r="D29">
-        <v>55</v>
+        <v>77</v>
       </c>
       <c r="E29">
-        <v>84</v>
+        <v>77</v>
       </c>
       <c r="F29">
-        <v>90</v>
+        <v>76</v>
       </c>
       <c r="G29">
-        <v>56</v>
+        <v>76</v>
       </c>
       <c r="H29">
-        <v>90</v>
+        <v>99</v>
       </c>
     </row>
     <row r="30" spans="1:8" x14ac:dyDescent="0.25">
@@ -1384,19 +1366,16 @@
         <v>56</v>
       </c>
       <c r="D30">
-        <v>50</v>
+        <v>82</v>
       </c>
       <c r="E30">
-        <v>51</v>
+        <v>81</v>
       </c>
       <c r="F30">
-        <v>58</v>
+        <v>83</v>
       </c>
       <c r="G30">
-        <v>75</v>
-      </c>
-      <c r="H30">
-        <v>83</v>
+        <v>85</v>
       </c>
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.25">
@@ -1410,19 +1389,19 @@
         <v>58</v>
       </c>
       <c r="D31">
-        <v>62</v>
+        <v>77</v>
       </c>
       <c r="E31">
-        <v>51</v>
+        <v>88</v>
       </c>
       <c r="F31">
-        <v>73</v>
+        <v>86</v>
       </c>
       <c r="G31">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="H31">
-        <v>83</v>
+        <v>99</v>
       </c>
     </row>
     <row r="32" spans="1:8" x14ac:dyDescent="0.25">
@@ -1436,19 +1415,19 @@
         <v>60</v>
       </c>
       <c r="D32">
-        <v>60</v>
+        <v>75</v>
       </c>
       <c r="E32">
-        <v>50</v>
+        <v>88</v>
       </c>
       <c r="F32">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="G32">
-        <v>74</v>
+        <v>81</v>
       </c>
       <c r="H32">
-        <v>67</v>
+        <v>99</v>
       </c>
     </row>
     <row r="33" spans="1:8" x14ac:dyDescent="0.25">
@@ -1462,19 +1441,19 @@
         <v>62</v>
       </c>
       <c r="D33">
-        <v>57</v>
+        <v>85</v>
       </c>
       <c r="E33">
-        <v>81</v>
+        <v>87</v>
       </c>
       <c r="F33">
-        <v>61</v>
+        <v>85</v>
       </c>
       <c r="G33">
-        <v>64</v>
+        <v>78</v>
       </c>
       <c r="H33">
-        <v>83</v>
+        <v>99</v>
       </c>
     </row>
     <row r="34" spans="1:8" x14ac:dyDescent="0.25">
@@ -1488,19 +1467,19 @@
         <v>64</v>
       </c>
       <c r="D34">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="E34">
-        <v>62</v>
+        <v>80</v>
       </c>
       <c r="F34">
-        <v>59</v>
+        <v>77</v>
       </c>
       <c r="G34">
-        <v>58</v>
+        <v>87</v>
       </c>
       <c r="H34">
-        <v>80</v>
+        <v>99</v>
       </c>
     </row>
     <row r="35" spans="1:8" x14ac:dyDescent="0.25">
@@ -1514,19 +1493,16 @@
         <v>66</v>
       </c>
       <c r="D35">
-        <v>52</v>
+        <v>80</v>
       </c>
       <c r="E35">
-        <v>52</v>
+        <v>86</v>
       </c>
       <c r="F35">
+        <v>85</v>
+      </c>
+      <c r="G35">
         <v>89</v>
-      </c>
-      <c r="G35">
-        <v>54</v>
-      </c>
-      <c r="H35">
-        <v>57</v>
       </c>
     </row>
     <row r="36" spans="1:8" x14ac:dyDescent="0.25">
@@ -1540,19 +1516,19 @@
         <v>68</v>
       </c>
       <c r="D36">
-        <v>84</v>
+        <v>76</v>
       </c>
       <c r="E36">
-        <v>90</v>
+        <v>81</v>
       </c>
       <c r="F36">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="G36">
-        <v>55</v>
+        <v>78</v>
       </c>
       <c r="H36">
-        <v>71</v>
+        <v>99</v>
       </c>
     </row>
     <row r="37" spans="1:8" x14ac:dyDescent="0.25">
@@ -1566,19 +1542,19 @@
         <v>70</v>
       </c>
       <c r="D37">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="E37">
-        <v>65</v>
+        <v>79</v>
       </c>
       <c r="F37">
-        <v>51</v>
+        <v>75</v>
       </c>
       <c r="G37">
-        <v>61</v>
+        <v>78</v>
       </c>
       <c r="H37">
-        <v>85</v>
+        <v>99</v>
       </c>
     </row>
     <row r="38" spans="1:8" x14ac:dyDescent="0.25">
@@ -1592,19 +1568,19 @@
         <v>72</v>
       </c>
       <c r="D38">
-        <v>56</v>
+        <v>79</v>
       </c>
       <c r="E38">
-        <v>77</v>
+        <v>83</v>
       </c>
       <c r="F38">
-        <v>61</v>
+        <v>79</v>
       </c>
       <c r="G38">
-        <v>78</v>
+        <v>83</v>
       </c>
       <c r="H38">
-        <v>80</v>
+        <v>99</v>
       </c>
     </row>
     <row r="39" spans="1:8" x14ac:dyDescent="0.25">
@@ -1618,19 +1594,19 @@
         <v>74</v>
       </c>
       <c r="D39">
-        <v>65</v>
+        <v>82</v>
       </c>
       <c r="E39">
-        <v>51</v>
+        <v>89</v>
       </c>
       <c r="F39">
-        <v>84</v>
+        <v>78</v>
       </c>
       <c r="G39">
-        <v>67</v>
+        <v>86</v>
       </c>
       <c r="H39">
-        <v>74</v>
+        <v>99</v>
       </c>
     </row>
     <row r="40" spans="1:8" x14ac:dyDescent="0.25">
@@ -1644,19 +1620,19 @@
         <v>76</v>
       </c>
       <c r="D40">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="E40">
-        <v>87</v>
+        <v>76</v>
       </c>
       <c r="F40">
-        <v>67</v>
+        <v>84</v>
       </c>
       <c r="G40">
-        <v>71</v>
+        <v>77</v>
       </c>
       <c r="H40">
-        <v>90</v>
+        <v>99</v>
       </c>
     </row>
     <row r="41" spans="1:8" x14ac:dyDescent="0.25">
@@ -1670,19 +1646,19 @@
         <v>78</v>
       </c>
       <c r="D41">
-        <v>77</v>
+        <v>83</v>
       </c>
       <c r="E41">
-        <v>68</v>
+        <v>83</v>
       </c>
       <c r="F41">
-        <v>83</v>
+        <v>88</v>
       </c>
       <c r="G41">
-        <v>54</v>
+        <v>79</v>
       </c>
       <c r="H41">
-        <v>74</v>
+        <v>99</v>
       </c>
     </row>
     <row r="42" spans="1:8" x14ac:dyDescent="0.25">
@@ -1696,19 +1672,16 @@
         <v>80</v>
       </c>
       <c r="D42">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="E42">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="F42">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="G42">
-        <v>56</v>
-      </c>
-      <c r="H42">
-        <v>51</v>
+        <v>82</v>
       </c>
     </row>
     <row r="43" spans="1:8" x14ac:dyDescent="0.25">
@@ -1722,19 +1695,19 @@
         <v>82</v>
       </c>
       <c r="D43">
-        <v>63</v>
+        <v>80</v>
       </c>
       <c r="E43">
-        <v>89</v>
+        <v>75</v>
       </c>
       <c r="F43">
-        <v>54</v>
+        <v>87</v>
       </c>
       <c r="G43">
-        <v>56</v>
+        <v>75</v>
       </c>
       <c r="H43">
-        <v>85</v>
+        <v>99</v>
       </c>
     </row>
     <row r="44" spans="1:8" x14ac:dyDescent="0.25">
@@ -1748,19 +1721,19 @@
         <v>84</v>
       </c>
       <c r="D44">
-        <v>58</v>
+        <v>76</v>
       </c>
       <c r="E44">
-        <v>61</v>
+        <v>83</v>
       </c>
       <c r="F44">
-        <v>69</v>
+        <v>78</v>
       </c>
       <c r="G44">
-        <v>52</v>
+        <v>78</v>
       </c>
       <c r="H44">
-        <v>51</v>
+        <v>99</v>
       </c>
     </row>
     <row r="45" spans="1:8" x14ac:dyDescent="0.25">
@@ -1774,19 +1747,19 @@
         <v>86</v>
       </c>
       <c r="D45">
-        <v>52</v>
+        <v>80</v>
       </c>
       <c r="E45">
-        <v>78</v>
+        <v>89</v>
       </c>
       <c r="F45">
         <v>77</v>
       </c>
       <c r="G45">
-        <v>84</v>
+        <v>78</v>
       </c>
       <c r="H45">
-        <v>61</v>
+        <v>99</v>
       </c>
     </row>
     <row r="46" spans="1:8" x14ac:dyDescent="0.25">
@@ -1800,19 +1773,19 @@
         <v>88</v>
       </c>
       <c r="D46">
-        <v>56</v>
+        <v>76</v>
       </c>
       <c r="E46">
-        <v>70</v>
+        <v>86</v>
       </c>
       <c r="F46">
-        <v>63</v>
+        <v>80</v>
       </c>
       <c r="G46">
-        <v>54</v>
+        <v>78</v>
       </c>
       <c r="H46">
-        <v>82</v>
+        <v>99</v>
       </c>
     </row>
     <row r="47" spans="1:8" x14ac:dyDescent="0.25">
@@ -1826,19 +1799,19 @@
         <v>90</v>
       </c>
       <c r="D47">
-        <v>51</v>
+        <v>84</v>
       </c>
       <c r="E47">
-        <v>68</v>
+        <v>77</v>
       </c>
       <c r="F47">
-        <v>85</v>
+        <v>79</v>
       </c>
       <c r="G47">
-        <v>71</v>
+        <v>78</v>
       </c>
       <c r="H47">
-        <v>73</v>
+        <v>99</v>
       </c>
     </row>
     <row r="48" spans="1:8" x14ac:dyDescent="0.25">
@@ -1852,19 +1825,19 @@
         <v>92</v>
       </c>
       <c r="D48">
-        <v>68</v>
+        <v>88</v>
       </c>
       <c r="E48">
-        <v>73</v>
+        <v>81</v>
       </c>
       <c r="F48">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="G48">
         <v>76</v>
       </c>
       <c r="H48">
-        <v>62</v>
+        <v>99</v>
       </c>
     </row>
     <row r="49" spans="1:8" x14ac:dyDescent="0.25">
@@ -1878,19 +1851,19 @@
         <v>94</v>
       </c>
       <c r="D49">
-        <v>60</v>
+        <v>77</v>
       </c>
       <c r="E49">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="F49">
-        <v>76</v>
+        <v>83</v>
       </c>
       <c r="G49">
-        <v>70</v>
+        <v>84</v>
       </c>
       <c r="H49">
-        <v>60</v>
+        <v>99</v>
       </c>
     </row>
     <row r="50" spans="1:8" x14ac:dyDescent="0.25">
@@ -1904,19 +1877,19 @@
         <v>96</v>
       </c>
       <c r="D50">
+        <v>80</v>
+      </c>
+      <c r="E50">
         <v>86</v>
       </c>
-      <c r="E50">
-        <v>64</v>
-      </c>
       <c r="F50">
-        <v>53</v>
+        <v>89</v>
       </c>
       <c r="G50">
-        <v>65</v>
+        <v>89</v>
       </c>
       <c r="H50">
-        <v>68</v>
+        <v>99</v>
       </c>
     </row>
   </sheetData>
